--- a/laser_specification_final_template.xlsx
+++ b/laser_specification_final_template.xlsx
@@ -131,7 +131,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -149,141 +149,7 @@
       <top style="thin">
         <color indexed="8"/>
       </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -298,15 +164,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -316,70 +176,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -390,6 +193,36 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -686,38 +519,38 @@
   <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="6" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="56.5546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="27.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="56.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="27.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:8" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="35" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-    </row>
-    <row r="3" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -725,7 +558,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>8</v>
@@ -737,673 +570,674 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="13"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="17"/>
-      <c r="F6" s="12"/>
+      <c r="F6" s="19"/>
       <c r="G6" s="17"/>
-      <c r="H6" s="10"/>
+      <c r="H6" s="20"/>
     </row>
     <row r="7" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="13"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="17"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23"/>
     </row>
     <row r="8" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="13"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="17"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23"/>
     </row>
     <row r="9" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="13"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="17"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23"/>
     </row>
     <row r="10" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="13"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="17"/>
-      <c r="F10" s="12"/>
+      <c r="F10" s="19"/>
       <c r="G10" s="17"/>
-      <c r="H10" s="10"/>
+      <c r="H10" s="20"/>
     </row>
     <row r="11" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="13"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="17"/>
-      <c r="F11" s="12"/>
+      <c r="F11" s="19"/>
       <c r="G11" s="17"/>
-      <c r="H11" s="10"/>
+      <c r="H11" s="20"/>
     </row>
     <row r="12" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="13"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="17"/>
-      <c r="F12" s="12"/>
+      <c r="F12" s="19"/>
       <c r="G12" s="17"/>
-      <c r="H12" s="32"/>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="13"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
       <c r="E13" s="17"/>
-      <c r="F13" s="12"/>
+      <c r="F13" s="19"/>
       <c r="G13" s="17"/>
-      <c r="H13" s="31"/>
+      <c r="H13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="13"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
       <c r="E14" s="17"/>
-      <c r="F14" s="12"/>
+      <c r="F14" s="19"/>
       <c r="G14" s="17"/>
-      <c r="H14" s="10"/>
+      <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="13"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
       <c r="E15" s="17"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="25"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="24"/>
     </row>
     <row r="16" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="13"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
       <c r="E16" s="17"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="25"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="24"/>
     </row>
     <row r="17" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="13"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
       <c r="E17" s="17"/>
-      <c r="F17" s="12"/>
+      <c r="F17" s="19"/>
       <c r="G17" s="17"/>
-      <c r="H17" s="10"/>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="10"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="20"/>
     </row>
     <row r="19" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="10"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="20"/>
     </row>
     <row r="20" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="10"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="20"/>
     </row>
     <row r="21" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="10"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="20"/>
     </row>
     <row r="22" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="10"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="20"/>
     </row>
     <row r="23" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="10"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="20"/>
     </row>
     <row r="24" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="10"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="20"/>
     </row>
     <row r="25" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="10"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="20"/>
     </row>
     <row r="26" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="10"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="20"/>
     </row>
     <row r="27" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="10"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="20"/>
     </row>
     <row r="28" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="10"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="20"/>
     </row>
     <row r="29" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="10"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="20"/>
     </row>
     <row r="30" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="10"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="20"/>
     </row>
     <row r="31" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="10"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="20"/>
     </row>
     <row r="32" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="26"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="10"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="20"/>
     </row>
     <row r="33" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="10"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="20"/>
     </row>
     <row r="34" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="26"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="10"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="20"/>
     </row>
     <row r="35" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="26"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="10"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="20"/>
     </row>
     <row r="36" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="26"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="10"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="20"/>
     </row>
     <row r="37" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="26"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="10"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="20"/>
     </row>
     <row r="38" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="26"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="10"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="20"/>
     </row>
     <row r="39" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A39" s="26"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="10"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="20"/>
     </row>
     <row r="40" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="26"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="10"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="20"/>
     </row>
     <row r="41" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="26"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="10"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="20"/>
     </row>
     <row r="42" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A42" s="26"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="10"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="20"/>
     </row>
     <row r="43" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="26"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="10"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="20"/>
     </row>
     <row r="44" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="26"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="10"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="20"/>
     </row>
     <row r="45" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="26"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="10"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="20"/>
     </row>
     <row r="46" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="26"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="10"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="20"/>
     </row>
     <row r="47" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A47" s="26"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="10"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="20"/>
     </row>
     <row r="48" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A48" s="26"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="10"/>
+      <c r="A48" s="15"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="20"/>
     </row>
     <row r="49" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A49" s="26"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="10"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="20"/>
     </row>
     <row r="50" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A50" s="26"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="10"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="20"/>
     </row>
     <row r="51" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A51" s="26"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="10"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="20"/>
     </row>
     <row r="52" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A52" s="26"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="10"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="20"/>
     </row>
     <row r="53" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A53" s="26"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="10"/>
+      <c r="A53" s="15"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="20"/>
     </row>
     <row r="54" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A54" s="26"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="10"/>
+      <c r="A54" s="15"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="20"/>
     </row>
     <row r="55" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="26"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="10"/>
+      <c r="A55" s="15"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="20"/>
     </row>
     <row r="56" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A56" s="26"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="10"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="20"/>
     </row>
     <row r="57" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A57" s="26"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="10"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="20"/>
     </row>
     <row r="58" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A58" s="26"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="10"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="20"/>
     </row>
     <row r="59" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A59" s="26"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="10"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="20"/>
     </row>
     <row r="60" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A60" s="26"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="10"/>
+      <c r="A60" s="15"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="20"/>
     </row>
     <row r="61" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A61" s="15"/>
+      <c r="A61" s="8"/>
       <c r="B61"/>
       <c r="C61"/>
       <c r="D61"/>
       <c r="E61"/>
-      <c r="F61" s="18"/>
+      <c r="F61" s="9"/>
       <c r="G61"/>
       <c r="H61"/>
     </row>
     <row r="62" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A62" s="15"/>
+      <c r="A62" s="8"/>
       <c r="B62"/>
       <c r="C62"/>
       <c r="D62"/>
       <c r="E62"/>
-      <c r="F62" s="18"/>
+      <c r="F62" s="9"/>
       <c r="G62"/>
       <c r="H62"/>
     </row>
     <row r="63" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A63" s="15"/>
+      <c r="A63" s="8"/>
       <c r="B63"/>
       <c r="C63"/>
       <c r="D63"/>
       <c r="E63"/>
-      <c r="F63" s="18"/>
+      <c r="F63" s="9"/>
       <c r="G63"/>
       <c r="H63"/>
     </row>
     <row r="64" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A64" s="15"/>
+      <c r="A64" s="8"/>
       <c r="B64"/>
       <c r="C64"/>
       <c r="D64"/>
       <c r="E64"/>
-      <c r="F64" s="18"/>
+      <c r="F64" s="9"/>
       <c r="G64"/>
       <c r="H64"/>
     </row>
     <row r="65" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A65" s="15"/>
+      <c r="A65" s="8"/>
       <c r="B65"/>
       <c r="C65"/>
       <c r="D65"/>
       <c r="E65"/>
-      <c r="F65" s="18"/>
+      <c r="F65" s="9"/>
       <c r="G65"/>
       <c r="H65"/>
     </row>
     <row r="66" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A66" s="15"/>
+      <c r="A66" s="8"/>
       <c r="B66"/>
       <c r="C66"/>
       <c r="D66"/>
       <c r="E66"/>
-      <c r="F66" s="18"/>
+      <c r="F66" s="9"/>
       <c r="G66"/>
       <c r="H66"/>
     </row>
     <row r="67" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A67" s="15"/>
+      <c r="A67" s="8"/>
       <c r="B67"/>
       <c r="C67"/>
       <c r="D67"/>
       <c r="E67"/>
-      <c r="F67" s="18"/>
+      <c r="F67" s="9"/>
       <c r="G67"/>
       <c r="H67"/>
     </row>
     <row r="68" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A68" s="15"/>
+      <c r="A68" s="8"/>
       <c r="B68"/>
       <c r="C68"/>
       <c r="D68"/>
       <c r="E68"/>
-      <c r="F68" s="18"/>
+      <c r="F68" s="9"/>
       <c r="G68"/>
       <c r="H68"/>
     </row>
     <row r="69" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A69" s="15"/>
+      <c r="A69" s="8"/>
       <c r="B69"/>
       <c r="C69"/>
       <c r="D69"/>
       <c r="E69"/>
-      <c r="F69" s="18"/>
+      <c r="F69" s="9"/>
       <c r="G69"/>
       <c r="H69"/>
     </row>
     <row r="70" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A70" s="15"/>
+      <c r="A70" s="8"/>
       <c r="B70"/>
       <c r="C70"/>
       <c r="D70"/>
@@ -1413,7 +1247,7 @@
       <c r="H70"/>
     </row>
     <row r="71" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A71" s="15"/>
+      <c r="A71" s="8"/>
       <c r="B71"/>
       <c r="C71"/>
       <c r="D71"/>
@@ -1423,7 +1257,7 @@
       <c r="H71"/>
     </row>
     <row r="72" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A72" s="15"/>
+      <c r="A72" s="8"/>
       <c r="B72"/>
       <c r="C72"/>
       <c r="D72"/>
@@ -1433,7 +1267,7 @@
       <c r="H72"/>
     </row>
     <row r="73" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A73" s="15"/>
+      <c r="A73" s="8"/>
       <c r="B73"/>
       <c r="C73"/>
       <c r="D73"/>
@@ -1443,16 +1277,16 @@
       <c r="H73"/>
     </row>
     <row r="74" spans="1:8" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="15"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="8"/>
+      <c r="A74" s="8"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="6"/>
     </row>
     <row r="75" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A75" s="15"/>
+      <c r="A75" s="8"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -1461,35 +1295,35 @@
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A76" s="15"/>
+      <c r="A76" s="8"/>
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A77" s="15"/>
+      <c r="A77" s="8"/>
       <c r="H77" s="1"/>
     </row>
     <row r="78" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A78" s="15"/>
+      <c r="A78" s="8"/>
       <c r="H78" s="1"/>
     </row>
     <row r="79" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A79" s="15"/>
+      <c r="A79" s="8"/>
       <c r="H79" s="1"/>
     </row>
     <row r="80" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A80" s="15"/>
+      <c r="A80" s="8"/>
     </row>
     <row r="81" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A81" s="15"/>
+      <c r="A81" s="8"/>
     </row>
     <row r="82" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A82" s="15"/>
+      <c r="A82" s="8"/>
     </row>
     <row r="83" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A83" s="15"/>
+      <c r="A83" s="8"/>
     </row>
     <row r="84" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A84" s="15"/>
+      <c r="A84" s="8"/>
     </row>
     <row r="85" spans="1:1" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="86" spans="1:1" ht="13.2" x14ac:dyDescent="0.25"/>
